--- a/timmar-mall.xlsx
+++ b/timmar-mall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/JOBB/Hello-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F521213E-A54A-BA4C-8F0E-DFF5FEB4E881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F065A9-E799-BC42-B4F8-919D1E52CE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Hours Worked</t>
-  </si>
-  <si>
-    <t>Regular Hours</t>
   </si>
   <si>
     <t>Date(s)</t>
@@ -65,9 +62,6 @@
 Worked</t>
   </si>
   <si>
-    <t>Period Start Date</t>
-  </si>
-  <si>
     <t>Time Sheet Johan Tell</t>
   </si>
   <si>
@@ -78,16 +72,20 @@
   </si>
   <si>
     <t>Phone: 0762099641</t>
+  </si>
+  <si>
+    <t>Period start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -233,16 +231,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -613,7 +611,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -630,7 +628,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,32 +639,29 @@
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -681,7 +676,7 @@
     </row>
     <row r="6" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -689,7 +684,7 @@
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <f>IFERROR(IF(COUNT(#REF!)=4,(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!+#REF!-#REF!,IF(AND(LEN(#REF!)&lt;&gt;0,LEN(#REF!)&lt;&gt;0),(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!,0))*24,0)</f>
@@ -698,7 +693,7 @@
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
         <f>IFERROR(IF(COUNT(#REF!)=4,(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!+#REF!-#REF!,IF(AND(LEN(#REF!)&lt;&gt;0,LEN(#REF!)&lt;&gt;0),(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!,0))*24,0)</f>
@@ -707,7 +702,7 @@
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <f>IFERROR(IF(COUNT(#REF!)=4,(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!+#REF!-#REF!,IF(AND(LEN(#REF!)&lt;&gt;0,LEN(#REF!)&lt;&gt;0),(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!,0))*24,0)</f>
@@ -716,7 +711,7 @@
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
         <f>IFERROR(IF(COUNT(#REF!)=4,(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!+#REF!-#REF!,IF(AND(LEN(#REF!)&lt;&gt;0,LEN(#REF!)&lt;&gt;0),(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!,0))*24,0)</f>
@@ -725,7 +720,7 @@
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <f>IFERROR(IF(COUNT(#REF!)=4,(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!+#REF!-#REF!,IF(AND(LEN(#REF!)&lt;&gt;0,LEN(#REF!)&lt;&gt;0),(IF(#REF!&lt;#REF!,1,0)+#REF!)-#REF!,0))*24,0)</f>
@@ -733,8 +728,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 A2:A1048576 D3:E3 D6:XFD11 B12:XFD1048576 B7:C11 D4:XFD5 F1:XFD3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 A2:A1048576 D3:E3 B12:XFD1048576 B7:C11 F1:XFD3 C4:XFD4 D5:XFD11" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use this worksheet to track hours worked in a work week. Enter Date and Times in TimeSheet table. Total Hours, Regular Hours and Overtime Hours are automatically calculated" sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" sqref="B1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Name, Email and Phone in cells at right" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
@@ -744,7 +739,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Period Start Date in this cell" sqref="B3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Period End Date in this cell" sqref="C3" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Total Hours Worked are automatically calculated in cell below" sqref="B4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Regular Hours are automatically calculated in cell below" sqref="C4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Total Hours Worked are automatically calculated in this cell" sqref="B5" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Regular Hours are automatically calculated in this cell" sqref="C5" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in this column under this heading. Use heading filters to find specific entries" sqref="B6" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
